--- a/survival_analysis/Kaplan_Meier.xlsx
+++ b/survival_analysis/Kaplan_Meier.xlsx
@@ -266,7 +266,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -434,11 +433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1380469104"/>
-        <c:axId val="-1380467472"/>
+        <c:axId val="-623051312"/>
+        <c:axId val="-623048048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1380469104"/>
+        <c:axId val="-623051312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,7 +469,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -537,14 +535,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380467472"/>
+        <c:crossAx val="-623048048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1380467472"/>
+        <c:axId val="-623048048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1380469104"/>
+        <c:crossAx val="-623051312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1569,7 +1567,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
@@ -1705,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f>(E7-F7)/E7</f>
         <v>1</v>
       </c>
       <c r="H7" s="5">
@@ -1727,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
+        <f>(E8-F8)/E8</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="H8" s="5">
